--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CC23B8-865E-4C3E-A392-BF9F2F16CF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296F32D2-D611-4295-A2B0-BBA93D70366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,17 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>10/2までにゲームの企画をできるだけ考えておく</t>
-    <rPh sb="11" eb="13">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>先生に聞いて決まったゲームに修正を加えて、プロトタイプ作成</t>
     <rPh sb="0" eb="2">
@@ -66,6 +59,90 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム制作スケジュール表</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーマに沿った企画を考えておく</t>
+    <rPh sb="4" eb="5">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出日</t>
+    <rPh sb="0" eb="3">
+      <t>テイシュツビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対面試遊会・オンライン試遊会</t>
+    <rPh sb="0" eb="2">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シユウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン試遊会</t>
+  </si>
+  <si>
+    <t>オンライン試遊会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング発表</t>
+    <rPh sb="5" eb="7">
+      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -74,7 +151,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="181" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,19 +171,82 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -113,15 +257,108 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -132,6 +369,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{475E285B-E60E-44BF-89D6-857A9C62FE5A}">
+  <header guid="{475E285B-E60E-44BF-89D6-857A9C62FE5A}" dateTime="2024-10-01T21:38:46" maxSheetId="2" userName="2240021" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{475E285B-E60E-44BF-89D6-857A9C62FE5A}" name="2240021" id="-566199896" dateTime="2024-10-01T21:38:46"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,26 +708,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E2D406-EB54-4C27-A6CF-5F142FBA59DC}">
-  <dimension ref="C3:C4"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>45566</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <f>A2</f>
+        <v>45566</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>TEXT(A4,"aaa")</f>
+        <v>火</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="G4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>1</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <f>A4+1</f>
+        <v>45567</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" ref="B5:B34" si="0">TEXT(A5,"aaa")</f>
+        <v>水</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <f t="shared" ref="A6:A27" si="1">A5+1</f>
+        <v>45568</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>45569</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>45570</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>45571</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>45572</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>45573</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>45574</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>45575</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>45576</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>45577</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>45578</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>45579</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>45580</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>45581</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>45582</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>45583</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
+        <v>45584</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
+        <v>45585</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <f t="shared" si="1"/>
+        <v>45586</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <f t="shared" si="1"/>
+        <v>45587</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
+        <v>45588</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <f t="shared" si="1"/>
+        <v>45589</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="6">
+        <v>45590</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="6">
+        <v>45591</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="6">
+        <v>45592</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="6">
+        <v>45593</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="6">
+        <v>45594</v>
+      </c>
+      <c r="B32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="6">
+        <v>45595</v>
+      </c>
+      <c r="B33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="6">
+        <v>45596</v>
+      </c>
+      <c r="B34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G3" sqref="G3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A2:C1048576">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$A2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>B4="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B30">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>B4="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>B4="日"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B30">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>B4="日"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296F32D2-D611-4295-A2B0-BBA93D70366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C4CB44-7E67-47CB-B1D8-84B36EE84D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -212,7 +212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFEFFEA4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,9 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +295,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -360,6 +360,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFFEA4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -372,8 +377,13 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{475E285B-E60E-44BF-89D6-857A9C62FE5A}">
-  <header guid="{475E285B-E60E-44BF-89D6-857A9C62FE5A}" dateTime="2024-10-01T21:38:46" maxSheetId="2" userName="2240021" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{84EEF8AB-82C1-4542-969A-D6E2421E1BBD}" diskRevisions="1" version="2">
+  <header guid="{6235B49D-BB7B-42D8-B932-0B914AB144FC}" dateTime="2024-10-01T21:46:22" maxSheetId="2" userName="2240021" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{84EEF8AB-82C1-4542-969A-D6E2421E1BBD}" dateTime="2024-10-01T21:47:44" maxSheetId="2" userName="2240021" r:id="rId2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -385,9 +395,23 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="B17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEFFEA4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{475E285B-E60E-44BF-89D6-857A9C62FE5A}" name="2240021" id="-566199896" dateTime="2024-10-01T21:38:46"/>
+  <userInfo guid="{84EEF8AB-82C1-4542-969A-D6E2421E1BBD}" name="2240021" id="-566171411" dateTime="2024-10-01T21:46:22"/>
 </users>
 </file>
 
@@ -710,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E2D406-EB54-4C27-A6CF-5F142FBA59DC}">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -893,7 +917,7 @@
         <f t="shared" si="1"/>
         <v>45579</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
@@ -1025,7 +1049,7 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1057,11 +1081,11 @@
       <c r="A31" s="6">
         <v>45593</v>
       </c>
-      <c r="B31" s="11" t="str">
+      <c r="B31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1069,7 +1093,7 @@
       <c r="A32" s="6">
         <v>45594</v>
       </c>
-      <c r="B32" s="11" t="str">
+      <c r="B32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
@@ -1078,7 +1102,7 @@
       <c r="A33" s="6">
         <v>45595</v>
       </c>
-      <c r="B33" s="11" t="str">
+      <c r="B33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
@@ -1087,14 +1111,14 @@
       <c r="A34" s="6">
         <v>45596</v>
       </c>
-      <c r="B34" s="11" t="str">
+      <c r="B34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" topLeftCell="A10">
       <selection activeCell="G3" sqref="G3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C4CB44-7E67-47CB-B1D8-84B36EE84D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCAAB8-8661-4948-8104-965E09E89506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" xWindow="953" windowWidth="974" windowHeight="1039" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -304,25 +304,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -352,11 +334,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,13 +370,23 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{84EEF8AB-82C1-4542-969A-D6E2421E1BBD}" diskRevisions="1" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6380C9A8-BDF7-4AE6-B3EC-240E5CE9528C}" diskRevisions="1" revisionId="9" version="4">
   <header guid="{6235B49D-BB7B-42D8-B932-0B914AB144FC}" dateTime="2024-10-01T21:46:22" maxSheetId="2" userName="2240021" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
   <header guid="{84EEF8AB-82C1-4542-969A-D6E2421E1BBD}" dateTime="2024-10-01T21:47:44" maxSheetId="2" userName="2240021" r:id="rId2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{135F23BB-7B28-4BEE-9938-30AF53D5FB62}" dateTime="2024-10-01T22:04:58" maxSheetId="2" userName="2240021" r:id="rId3" minRId="1" maxRId="4">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6380C9A8-BDF7-4AE6-B3EC-240E5CE9528C}" dateTime="2024-10-01T22:07:03" maxSheetId="2" userName="2240021" r:id="rId4" minRId="5" maxRId="9">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -409,9 +412,114 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <nc r="K12" t="inlineStr">
+      <is>
+        <t>タスク表</t>
+        <rPh sb="3" eb="4">
+          <t>ヒョウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>曽和</t>
+        <rPh sb="0" eb="2">
+          <t>ソワ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <nc r="K15" t="inlineStr">
+      <is>
+        <t>丸毛</t>
+        <rPh sb="0" eb="2">
+          <t>マルケ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <nc r="P15" t="inlineStr">
+      <is>
+        <t>藤本</t>
+        <rPh sb="0" eb="2">
+          <t>フジモト</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="5" sheetId="1" source="F12:P15" destination="F6:P9" sourceSheetId="1"/>
+  <rcc rId="6" sId="1">
+    <oc r="K6" t="inlineStr">
+      <is>
+        <t>タスク表</t>
+        <rPh sb="3" eb="4">
+          <t>ヒョウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="K6"/>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <oc r="F9" t="inlineStr">
+      <is>
+        <t>曽和</t>
+        <rPh sb="0" eb="2">
+          <t>ソワ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="F9"/>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <oc r="K9" t="inlineStr">
+      <is>
+        <t>丸毛</t>
+        <rPh sb="0" eb="2">
+          <t>マルケ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="K9"/>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <oc r="P9" t="inlineStr">
+      <is>
+        <t>藤本</t>
+        <rPh sb="0" eb="2">
+          <t>フジモト</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="P9"/>
+  </rcc>
+  <rcv guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" action="delete"/>
+  <rcv guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{84EEF8AB-82C1-4542-969A-D6E2421E1BBD}" name="2240021" id="-566171411" dateTime="2024-10-01T21:46:22"/>
+  <userInfo guid="{6380C9A8-BDF7-4AE6-B3EC-240E5CE9528C}" name="2240021" id="-566171411" dateTime="2024-10-01T21:46:22"/>
 </users>
 </file>
 
@@ -732,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E2D406-EB54-4C27-A6CF-5F142FBA59DC}">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -744,7 +852,7 @@
     <col min="3" max="3" width="60.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>45566</v>
       </c>
@@ -753,7 +861,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -764,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <f>A2</f>
         <v>45566</v>
@@ -778,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <f>A4+1</f>
         <v>45567</v>
@@ -791,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A27" si="1">A5+1</f>
         <v>45568</v>
@@ -802,7 +910,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>45569</v>
@@ -813,7 +921,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>45570</v>
@@ -824,7 +932,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>45571</v>
@@ -835,7 +943,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>45572</v>
@@ -846,7 +954,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>45573</v>
@@ -857,7 +965,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>45574</v>
@@ -868,7 +976,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>45575</v>
@@ -879,7 +987,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>45576</v>
@@ -890,7 +998,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>45577</v>
@@ -901,7 +1009,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>45578</v>
@@ -1118,34 +1226,34 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" topLeftCell="A10">
-      <selection activeCell="G3" sqref="G3"/>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" topLeftCell="E1">
+      <selection activeCell="P9" sqref="P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:C1048576">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>B4="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B30">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>B4="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>B4="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>B4="日"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCAAB8-8661-4948-8104-965E09E89506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3D52D4-E468-44B0-9738-C9E51D8406F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{6380C9A8-BDF7-4AE6-B3EC-240E5CE9528C}" name="2240021" id="-566171411" dateTime="2024-10-01T21:46:22"/>
 </users>
@@ -840,9 +840,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E2D406-EB54-4C27-A6CF-5F142FBA59DC}">
-  <dimension ref="A2:P34"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +852,7 @@
     <col min="3" max="3" width="60.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>45566</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -872,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <f>A2</f>
         <v>45566</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <f>A4+1</f>
         <v>45567</v>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A27" si="1">A5+1</f>
         <v>45568</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>45569</v>
@@ -921,7 +921,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>45570</v>
@@ -932,7 +932,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>45571</v>
@@ -943,7 +943,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>45572</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>45573</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>45574</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>45575</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>45576</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>45577</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>45578</v>

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -518,9 +518,7 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{6380C9A8-BDF7-4AE6-B3EC-240E5CE9528C}" name="2240021" id="-566171411" dateTime="2024-10-01T21:46:22"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3D52D4-E468-44B0-9738-C9E51D8406F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{D52F5C56-8889-4AF3-B433-FBDD4BCD270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="スケジュール表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" xWindow="953" windowWidth="974" windowHeight="1039" activeSheetId="1"/>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>先生に聞いて決まったゲームに修正を加えて、プロトタイプ作成</t>
     <rPh sb="0" eb="2">
@@ -143,6 +143,33 @@
     <t>ランキング発表</t>
     <rPh sb="5" eb="7">
       <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム制作授業日</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュギョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム制作授業日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム制作授業日</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -152,8 +179,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="181" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -190,7 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -273,31 +300,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -306,9 +333,27 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -329,27 +374,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,158 +394,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6380C9A8-BDF7-4AE6-B3EC-240E5CE9528C}" diskRevisions="1" revisionId="9" version="4">
-  <header guid="{6235B49D-BB7B-42D8-B932-0B914AB144FC}" dateTime="2024-10-01T21:46:22" maxSheetId="2" userName="2240021" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{84EEF8AB-82C1-4542-969A-D6E2421E1BBD}" dateTime="2024-10-01T21:47:44" maxSheetId="2" userName="2240021" r:id="rId2">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{135F23BB-7B28-4BEE-9938-30AF53D5FB62}" dateTime="2024-10-01T22:04:58" maxSheetId="2" userName="2240021" r:id="rId3" minRId="1" maxRId="4">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6380C9A8-BDF7-4AE6-B3EC-240E5CE9528C}" dateTime="2024-10-01T22:07:03" maxSheetId="2" userName="2240021" r:id="rId4" minRId="5" maxRId="9">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="B17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEFFEA4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1">
-    <nc r="K12" t="inlineStr">
-      <is>
-        <t>タスク表</t>
-        <rPh sb="3" eb="4">
-          <t>ヒョウ</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="2" sId="1">
-    <nc r="F15" t="inlineStr">
-      <is>
-        <t>曽和</t>
-        <rPh sb="0" eb="2">
-          <t>ソワ</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <nc r="K15" t="inlineStr">
-      <is>
-        <t>丸毛</t>
-        <rPh sb="0" eb="2">
-          <t>マルケ</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1">
-    <nc r="P15" t="inlineStr">
-      <is>
-        <t>藤本</t>
-        <rPh sb="0" eb="2">
-          <t>フジモト</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rm rId="5" sheetId="1" source="F12:P15" destination="F6:P9" sourceSheetId="1"/>
-  <rcc rId="6" sId="1">
-    <oc r="K6" t="inlineStr">
-      <is>
-        <t>タスク表</t>
-        <rPh sb="3" eb="4">
-          <t>ヒョウ</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </oc>
-    <nc r="K6"/>
-  </rcc>
-  <rcc rId="7" sId="1">
-    <oc r="F9" t="inlineStr">
-      <is>
-        <t>曽和</t>
-        <rPh sb="0" eb="2">
-          <t>ソワ</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </oc>
-    <nc r="F9"/>
-  </rcc>
-  <rcc rId="8" sId="1">
-    <oc r="K9" t="inlineStr">
-      <is>
-        <t>丸毛</t>
-        <rPh sb="0" eb="2">
-          <t>マルケ</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </oc>
-    <nc r="K9"/>
-  </rcc>
-  <rcc rId="9" sId="1">
-    <oc r="P9" t="inlineStr">
-      <is>
-        <t>藤本</t>
-        <rPh sb="0" eb="2">
-          <t>フジモト</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </oc>
-    <nc r="P9"/>
-  </rcc>
-  <rcv guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" action="delete"/>
-  <rcv guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,10 +713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E2D406-EB54-4C27-A6CF-5F142FBA59DC}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -879,7 +755,9 @@
         <f>TEXT(A4,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
@@ -917,7 +795,9 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
@@ -961,7 +841,9 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
@@ -994,7 +876,9 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
@@ -1023,7 +907,7 @@
         <f t="shared" si="1"/>
         <v>45579</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
@@ -1038,7 +922,9 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
@@ -1071,7 +957,9 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
@@ -1104,7 +992,7 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1155,7 +1043,7 @@
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1191,7 +1079,7 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1224,35 +1112,38 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" topLeftCell="E1">
-      <selection activeCell="P9" sqref="P9"/>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:C1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="B4:B30">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>B4="日"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>B4="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B30">
+  <conditionalFormatting sqref="C6">
     <cfRule type="expression" dxfId="2" priority="3">
+      <formula>B4="日"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>B4="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>B4="日"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B30">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>B4="日"</formula>
+  <conditionalFormatting sqref="A4:C34">
+    <cfRule type="expression" priority="1">
+      <formula>$C4="授業日"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{D52F5C56-8889-4AF3-B433-FBDD4BCD270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C1CE8C7D-4EFD-4FA1-A8F7-A8D35758BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -394,6 +394,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}">
+  <header guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}" dateTime="2024-10-02T09:15:43" maxSheetId="2" userName="2240021" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}" name="2240021" id="-566207730" dateTime="2024-10-02T09:15:43"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,7 +1133,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -411,8 +411,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}" name="2240021" id="-566207730" dateTime="2024-10-02T09:15:43"/>
+  <userInfo guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}" name="2240127" id="-580896726" dateTime="2024-10-02T11:30:45"/>
 </users>
 </file>
 

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -411,9 +411,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}" name="2240021" id="-566207730" dateTime="2024-10-02T09:15:43"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C1CE8C7D-4EFD-4FA1-A8F7-A8D35758BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{06DF696C-ACDA-421B-ABD8-DCE14571063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -333,24 +333,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -377,6 +359,24 @@
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,7 +411,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}" name="2240021" id="-566172967" dateTime="2024-10-02T11:44:48"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,26 +1139,8 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:C1048576">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$A2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B30">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>B4="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>B4="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>B4="日"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>B4="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C34">
@@ -1164,6 +1148,24 @@
       <formula>$C4="授業日"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B30">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>B4="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>B4="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>B4="日"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>B4="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\randomparty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240007\Desktop\チーム制作\randomparty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C1CE8C7D-4EFD-4FA1-A8F7-A8D35758BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{10BECFA5-17E2-4D86-9416-A60A3049DEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>先生に聞いて決まったゲームに修正を加えて、プロトタイプ作成</t>
     <rPh sb="0" eb="2">
@@ -170,6 +171,13 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>授業日</t>
+    <rPh sb="0" eb="3">
+      <t>ジュギョウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,24 +341,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -378,6 +368,24 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -397,8 +405,13 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{636810ED-725F-43FF-BB0C-05B2CF5253D7}" diskRevisions="1" revisionId="1" version="2">
   <header guid="{0205C4F7-4B58-4846-9E05-94A35E67A423}" dateTime="2024-10-02T09:15:43" maxSheetId="2" userName="2240021" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{636810ED-725F-43FF-BB0C-05B2CF5253D7}" dateTime="2024-10-02T11:46:24" maxSheetId="2" userName="2240007" r:id="rId2" minRId="1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -408,6 +421,23 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>授業日</t>
+        <rPh sb="0" eb="3">
+          <t>ジュギョウビ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{65859046-4337-4AB0-9D9F-92796D02B706}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,7 +767,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -931,7 +961,9 @@
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
@@ -1132,6 +1164,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,26 +1175,8 @@
   </customSheetViews>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:C1048576">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$A2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B30">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>B4="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>B4="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>B4="日"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>B4="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C34">
@@ -1166,6 +1184,24 @@
       <formula>$C4="授業日"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B30">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>B4="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>B4="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>B4="日"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>B4="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>